--- a/Data/robust model_data_modified.xlsx
+++ b/Data/robust model_data_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workfolder\Optimization\RobustOpt_Model_for_Wind\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workfolder\Cplex\RobustOpt_Model_for_Wind\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A83F7B3-799D-4510-929C-093143E43256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4065F-618D-4295-AB0A-A0CAEACE59BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
+    <workbookView xWindow="57480" yWindow="1425" windowWidth="18240" windowHeight="28440" activeTab="2" xr2:uid="{C5479AE7-49B1-4642-AE8E-F83CD83C141D}"/>
   </bookViews>
   <sheets>
     <sheet name="Price_DA" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -510,22 +510,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA70A0D-8E07-4707-873C-CFE4B2E0BD75}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -542,7 +542,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -551,7 +551,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -560,7 +560,7 @@
         <v>26.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -569,7 +569,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -578,7 +578,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -587,7 +587,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -596,7 +596,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -605,7 +605,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -614,7 +614,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -623,7 +623,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -632,7 +632,7 @@
         <v>25.91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -641,7 +641,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -650,7 +650,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -659,7 +659,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -668,7 +668,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -677,7 +677,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -686,7 +686,7 @@
         <v>31.57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -695,7 +695,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -704,7 +704,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -713,7 +713,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -722,7 +722,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -731,7 +731,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -740,7 +740,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -760,21 +760,21 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -827,7 +827,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -836,7 +836,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -845,7 +845,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -854,7 +854,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -863,7 +863,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -899,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -917,7 +917,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -926,7 +926,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -935,7 +935,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -944,7 +944,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -953,7 +953,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -971,7 +971,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -980,7 +980,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -989,7 +989,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>0.99999999999999956</v>
@@ -1008,17 +1008,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44AF80B-2773-442D-A27B-420B2335B1F2}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>43.47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -1142,7 +1142,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -1184,7 +1184,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -1226,7 +1226,7 @@
         <v>39.340000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -1268,7 +1268,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -1310,7 +1310,7 @@
         <v>39.31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -1352,7 +1352,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -1394,7 +1394,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -1436,7 +1436,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -1478,7 +1478,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -1520,7 +1520,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -1562,7 +1562,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1604,7 +1604,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -1646,7 +1646,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -1688,7 +1688,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -1730,7 +1730,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -1772,7 +1772,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -1814,7 +1814,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -1856,7 +1856,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -1898,7 +1898,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -1940,7 +1940,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -1982,7 +1982,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -2024,7 +2024,7 @@
         <v>23.58</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -2066,14 +2066,8 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="B26">
-        <v>20.59</v>
-      </c>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2086,16 +2080,16 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2177,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -2219,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A25" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -2261,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -2303,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -2345,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -2387,7 +2381,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -2429,7 +2423,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -2471,7 +2465,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -2513,7 +2507,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -2555,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -2597,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -2639,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -2681,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -2723,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -2765,7 +2759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -2807,7 +2801,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -2849,7 +2843,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -2891,7 +2885,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -2933,7 +2927,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -2975,7 +2969,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -3017,7 +3011,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -3059,7 +3053,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -3101,7 +3095,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -3143,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3169,15 +3163,15 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3218,7 +3212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3261,7 +3255,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f>A2+TIME(1,0,0)</f>
         <v>4.1666666666666664E-2</v>
@@ -3305,7 +3299,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A26" si="0">A3+TIME(1,0,0)</f>
         <v>8.3333333333333329E-2</v>
@@ -3349,7 +3343,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>0.125</v>
@@ -3393,7 +3387,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
@@ -3437,7 +3431,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
@@ -3481,7 +3475,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0.24999999999999997</v>
@@ -3525,7 +3519,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0.29166666666666663</v>
@@ -3569,7 +3563,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
@@ -3613,7 +3607,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0.375</v>
@@ -3657,7 +3651,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
@@ -3701,7 +3695,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>0.45833333333333337</v>
@@ -3745,7 +3739,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -3789,7 +3783,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
@@ -3833,7 +3827,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
@@ -3877,7 +3871,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
@@ -3921,7 +3915,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
@@ -3965,7 +3959,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
@@ -4009,7 +4003,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>0.74999999999999978</v>
@@ -4053,7 +4047,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>0.79166666666666641</v>
@@ -4097,7 +4091,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
@@ -4141,7 +4135,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>0.87499999999999967</v>
@@ -4185,7 +4179,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>0.9166666666666663</v>
@@ -4229,7 +4223,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>0.95833333333333293</v>
@@ -4273,14 +4267,9 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999956</v>
-      </c>
-      <c r="B26" s="4">
-        <v>3.36</v>
-      </c>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4295,7 +4284,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4311,7 +4300,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
